--- a/Temp_dependent_params_withinhost.xlsx
+++ b/Temp_dependent_params_withinhost.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">TCI</t>
+    <t xml:space="preserve">TMI</t>
   </si>
   <si>
-    <t xml:space="preserve">TII</t>
+    <t xml:space="preserve">TMD</t>
   </si>
   <si>
     <t xml:space="preserve">TB</t>
